--- a/va_facility_data_2025-02-20/Westmoreland County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Westmoreland%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Westmoreland County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Westmoreland%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R36f0b815ca8c40c7a871f74812a74bf2"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb592d97572a0489fab11f7abaf24fffb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04832694f1984a9cbe6d5177db5df872"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5c09abc499854a8ebd4e894e2f35378b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R346f0c803750411b81273ae30091ed33"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R652107a8e1994f1ebf796148766c4b3c"/>
   </x:sheets>
 </x:workbook>
 </file>
